--- a/data/trans_dic/P16B06-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16B06-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>51,67; 100,0</t>
+          <t>52,19; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>36,24; 100,0</t>
+          <t>36,28; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,7 +706,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>47,78; 100,0</t>
+          <t>47,82; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>68,12; 100,0</t>
+          <t>71,33; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>56,1; 100,0</t>
+          <t>59,01; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -795,7 +796,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,94; 100,0</t>
+          <t>44,33; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -820,12 +821,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>67,84; 100,0</t>
+          <t>67,64; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>73,55; 100,0</t>
+          <t>72,16; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -835,7 +836,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>71,11; 100,0</t>
+          <t>79,81; 100,0</t>
         </is>
       </c>
     </row>
@@ -910,12 +911,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>76,9; 100,0</t>
+          <t>80,85; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>65,96; 100,0</t>
+          <t>64,1; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -940,12 +941,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>84,86; 100,0</t>
+          <t>88,72; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>80,92; 100,0</t>
+          <t>84,73; 100,0</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1016,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,54; 100,0</t>
+          <t>83,85; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1025,12 +1026,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>84,09; 100,0</t>
+          <t>85,15; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>66,94; 96,58</t>
+          <t>70,81; 96,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1040,12 +1041,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,81; 100,0</t>
+          <t>85,39; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>83,98; 98,23</t>
+          <t>82,31; 98,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1055,7 +1056,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>90,59; 98,76</t>
+          <t>89,18; 98,75</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1126,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>36,78; 100,0</t>
+          <t>39,61; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1135,7 +1136,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>65,24; 100,0</t>
+          <t>63,61; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1145,27 +1146,27 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>91,25; 100,0</t>
+          <t>92,24; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>90,7; 100,0</t>
+          <t>91,1; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>73,36; 100,0</t>
+          <t>73,61; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>93,41; 100,0</t>
+          <t>93,23; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>89,56; 98,78</t>
+          <t>89,03; 98,74</t>
         </is>
       </c>
     </row>
@@ -1250,32 +1251,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>86,3; 98,18</t>
+          <t>85,1; 98,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>92,23; 100,0</t>
+          <t>92,31; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>88,73; 98,1</t>
+          <t>88,09; 98,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>86,3; 98,18</t>
+          <t>85,1; 98,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>92,23; 100,0</t>
+          <t>92,31; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>89,23; 98,17</t>
+          <t>89,12; 98,15</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>80,31; 95,91</t>
+          <t>79,76; 96,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>91,38; 100,0</t>
+          <t>91,5; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>88,97; 98,81</t>
+          <t>89,59; 98,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>90,78; 98,07</t>
+          <t>90,59; 97,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>94,72; 99,53</t>
+          <t>94,52; 99,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>92,81; 97,98</t>
+          <t>93,27; 98,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>89,02; 96,32</t>
+          <t>89,43; 96,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>95,38; 99,06</t>
+          <t>95,5; 99,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>93,19; 97,62</t>
+          <t>93,07; 97,71</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyas pastillas para dormir fueron recetadas por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7933</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6321</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>11455</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>9305</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>9925</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10841</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>17238</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>16246</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>22297</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5003; 9586</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2631; 7251</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9499; 11455</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7562; 9305</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5527; 11559</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8990; 10841</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>13474; 18891</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>11100; 18810</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>20280; 22297</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6489</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>9307</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8013</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>7403</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6974</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>11597</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>13891</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>16281</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>19610</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3273; 7384</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7143; 9307</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6350; 8013</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>5682; 7403</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5353; 6974</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>8481; 12539</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>10669; 14786</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>14229; 16281</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>16402; 20552</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7781</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>18911</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>11661</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6707</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>12450</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>14707</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14488</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>31361</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>26368</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6323; 7781</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>15977; 19761</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8054; 12565</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5148; 6707</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10644; 12450</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12723; 14707</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12873; 14488</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>28578; 32211</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>23107; 27272</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>28930</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>18809</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>33887</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>21478</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>32410</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>42838</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>50408</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>51218</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>76725</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>25053; 29880</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>16713; 18809</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>29721; 34903</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>17201; 23440</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>30350; 32410</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>38390; 44957</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>44589; 53186</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>49090; 51218</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>71222; 78866</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>7668</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>11018</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>15807</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>21064</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>64146</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>71163</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>28731</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>75164</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>86970</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4077; 10293</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>9290; 11018</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>11346; 17837</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>19158; 21064</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>60096; 65151</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>66757; 73282</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>23080; 31356</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>71015; 76169</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>81125; 89974</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2187</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>67758</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>91317</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>102159</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>67758</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>91317</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>104346</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>942; 2187</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>61186; 70607</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>86156; 93335</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>94744; 105477</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>61186; 70607</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>86156; 93335</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>97794; 107709</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>58801</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>64366</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>83010</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>133714</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>217221</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>253306</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>192515</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>281587</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>336315</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>51785; 62435</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>60522; 66145</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>77904; 85951</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>127439; 137815</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>209715; 220252</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>246106; 258724</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>183870; 198641</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>275052; 285300</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>326511; 342802</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>